--- a/data/stock_list.xlsx
+++ b/data/stock_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghunlee/Desktop/Pycharm/ValueChainMap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FAAE32-5F82-0847-84DB-E1F56E3C2B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668ABF84-98A9-614D-840B-9B045676B417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22840" yWindow="600" windowWidth="28360" windowHeight="28200" xr2:uid="{85359153-6BE3-CA47-BCB1-57E1D79C5C5D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="265">
   <si>
     <t>class1</t>
   </si>
@@ -795,6 +795,42 @@
   </si>
   <si>
     <t>["EURONEXT:ORA"]</t>
+  </si>
+  <si>
+    <t>Robots</t>
+  </si>
+  <si>
+    <t>humanoids</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>9880</t>
+  </si>
+  <si>
+    <t>UBTECH</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>Xiaomi</t>
+  </si>
+  <si>
+    <t>XPEV</t>
+  </si>
+  <si>
+    <t>Xpeng</t>
+  </si>
+  <si>
+    <t>277810</t>
+  </si>
+  <si>
+    <t>Rainbow Robotics</t>
   </si>
 </sst>
 </file>
@@ -1176,13 +1212,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043C6CD4-AF7A-0743-9909-CB9E059BF0DA}">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <pane xSplit="9" ySplit="4" topLeftCell="J80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="4" topLeftCell="J102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C122" sqref="C122"/>
+      <selection pane="bottomRight" activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3089,6 +3125,9 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
       <c r="B87" t="s">
         <v>138</v>
       </c>
@@ -3109,6 +3148,9 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
       <c r="B88" t="s">
         <v>138</v>
       </c>
@@ -3126,6 +3168,9 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
       <c r="B89" t="s">
         <v>138</v>
       </c>
@@ -3140,6 +3185,9 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
       <c r="B90" t="s">
         <v>138</v>
       </c>
@@ -3154,6 +3202,9 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
       <c r="B91" t="s">
         <v>201</v>
       </c>
@@ -3171,6 +3222,9 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
       <c r="B92" t="s">
         <v>201</v>
       </c>
@@ -3191,6 +3245,9 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
       <c r="B93" t="s">
         <v>201</v>
       </c>
@@ -3211,6 +3268,9 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
       <c r="B94" t="s">
         <v>201</v>
       </c>
@@ -3231,6 +3291,9 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
       <c r="B95" t="s">
         <v>201</v>
       </c>
@@ -3251,6 +3314,9 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
       <c r="B96" t="s">
         <v>201</v>
       </c>
@@ -3264,7 +3330,10 @@
         <v>213</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
       <c r="B97" t="s">
         <v>201</v>
       </c>
@@ -3284,7 +3353,10 @@
         <v>114</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
       <c r="B98" t="s">
         <v>201</v>
       </c>
@@ -3304,7 +3376,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
       <c r="B99" t="s">
         <v>201</v>
       </c>
@@ -3324,7 +3399,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
       <c r="B100" t="s">
         <v>201</v>
       </c>
@@ -3344,7 +3422,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
       <c r="B101" t="s">
         <v>201</v>
       </c>
@@ -3364,7 +3445,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>101</v>
+      </c>
       <c r="B102" t="s">
         <v>201</v>
       </c>
@@ -3384,7 +3468,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
       <c r="B103" t="s">
         <v>201</v>
       </c>
@@ -3398,7 +3485,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
       <c r="B104" t="s">
         <v>201</v>
       </c>
@@ -3418,7 +3508,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>104</v>
+      </c>
       <c r="B105" t="s">
         <v>201</v>
       </c>
@@ -3438,7 +3531,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>105</v>
+      </c>
       <c r="B106" t="s">
         <v>201</v>
       </c>
@@ -3458,7 +3554,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
       <c r="B107" t="s">
         <v>201</v>
       </c>
@@ -3478,7 +3577,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
       <c r="B108" t="s">
         <v>201</v>
       </c>
@@ -3498,7 +3600,10 @@
         <v>114</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>108</v>
+      </c>
       <c r="B109" t="s">
         <v>201</v>
       </c>
@@ -3518,7 +3623,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>109</v>
+      </c>
       <c r="B110" t="s">
         <v>201</v>
       </c>
@@ -3538,7 +3646,10 @@
         <v>118</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>110</v>
+      </c>
       <c r="B111" t="s">
         <v>201</v>
       </c>
@@ -3558,7 +3669,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>111</v>
+      </c>
       <c r="B112" t="s">
         <v>201</v>
       </c>
@@ -3572,7 +3686,10 @@
         <v>241</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>112</v>
+      </c>
       <c r="B113" t="s">
         <v>201</v>
       </c>
@@ -3592,7 +3709,10 @@
         <v>241</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>113</v>
+      </c>
       <c r="B114" t="s">
         <v>201</v>
       </c>
@@ -3606,7 +3726,10 @@
         <v>245</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>114</v>
+      </c>
       <c r="B115" t="s">
         <v>201</v>
       </c>
@@ -3620,7 +3743,10 @@
         <v>245</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>115</v>
+      </c>
       <c r="B116" t="s">
         <v>201</v>
       </c>
@@ -3640,7 +3766,10 @@
         <v>249</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>116</v>
+      </c>
       <c r="B117" t="s">
         <v>201</v>
       </c>
@@ -3654,7 +3783,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>117</v>
+      </c>
       <c r="B118" t="s">
         <v>201</v>
       </c>
@@ -3669,6 +3801,121 @@
       </c>
       <c r="H118" t="s">
         <v>252</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>253</v>
+      </c>
+      <c r="C119" t="s">
+        <v>254</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E119" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" t="s">
+        <v>256</v>
+      </c>
+      <c r="G119" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>253</v>
+      </c>
+      <c r="C120" t="s">
+        <v>254</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E120" t="s">
+        <v>40</v>
+      </c>
+      <c r="F120" t="s">
+        <v>258</v>
+      </c>
+      <c r="G120" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>253</v>
+      </c>
+      <c r="C121" t="s">
+        <v>254</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E121" t="s">
+        <v>40</v>
+      </c>
+      <c r="F121" t="s">
+        <v>260</v>
+      </c>
+      <c r="G121" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>253</v>
+      </c>
+      <c r="C122" t="s">
+        <v>254</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E122" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" t="s">
+        <v>262</v>
+      </c>
+      <c r="G122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>253</v>
+      </c>
+      <c r="C123" t="s">
+        <v>254</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E123" t="s">
+        <v>32</v>
+      </c>
+      <c r="F123" t="s">
+        <v>264</v>
+      </c>
+      <c r="G123" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data/stock_list.xlsx
+++ b/data/stock_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghunlee/Desktop/Pycharm/ValueChainMap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668ABF84-98A9-614D-840B-9B045676B417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CED0EA-7CBD-F44F-9154-9F3D92633541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22840" yWindow="600" windowWidth="28360" windowHeight="28200" xr2:uid="{85359153-6BE3-CA47-BCB1-57E1D79C5C5D}"/>
+    <workbookView xWindow="22920" yWindow="600" windowWidth="28280" windowHeight="28200" xr2:uid="{85359153-6BE3-CA47-BCB1-57E1D79C5C5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="390">
   <si>
     <t>class1</t>
   </si>
@@ -797,9 +797,6 @@
     <t>["EURONEXT:ORA"]</t>
   </si>
   <si>
-    <t>Robots</t>
-  </si>
-  <si>
     <t>humanoids</t>
   </si>
   <si>
@@ -831,6 +828,384 @@
   </si>
   <si>
     <t>Rainbow Robotics</t>
+  </si>
+  <si>
+    <t>Figure AI</t>
+  </si>
+  <si>
+    <t>Boston Dynamics</t>
+  </si>
+  <si>
+    <t>Agility Robotics</t>
+  </si>
+  <si>
+    <t>Apptronik</t>
+  </si>
+  <si>
+    <t>1X Technologies</t>
+  </si>
+  <si>
+    <t>Sanctuary AI</t>
+  </si>
+  <si>
+    <t>Unitree</t>
+  </si>
+  <si>
+    <t>Agibot</t>
+  </si>
+  <si>
+    <t>Fourier</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>traditional industrial robot</t>
+  </si>
+  <si>
+    <t>FANUC</t>
+  </si>
+  <si>
+    <t>6954</t>
+  </si>
+  <si>
+    <t>Yaskawa</t>
+  </si>
+  <si>
+    <t>Kawasaki Heavy Industries</t>
+  </si>
+  <si>
+    <t>6506</t>
+  </si>
+  <si>
+    <t>7012</t>
+  </si>
+  <si>
+    <t>Omron</t>
+  </si>
+  <si>
+    <t>6645</t>
+  </si>
+  <si>
+    <t>ABB</t>
+  </si>
+  <si>
+    <t>ABBN</t>
+  </si>
+  <si>
+    <t>SIX</t>
+  </si>
+  <si>
+    <t>Swiss</t>
+  </si>
+  <si>
+    <t>KUKA</t>
+  </si>
+  <si>
+    <t>HD Hyundai Robotics</t>
+  </si>
+  <si>
+    <t>["KRX:267250"]</t>
+  </si>
+  <si>
+    <t>collaborative robot</t>
+  </si>
+  <si>
+    <t>Universal Robots</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Techman Rotos</t>
+  </si>
+  <si>
+    <t>4585</t>
+  </si>
+  <si>
+    <t>Doosan Robotics</t>
+  </si>
+  <si>
+    <t>454910</t>
+  </si>
+  <si>
+    <t>Neuromeka</t>
+  </si>
+  <si>
+    <t>348340</t>
+  </si>
+  <si>
+    <t>2432</t>
+  </si>
+  <si>
+    <t>Shenzhen Dobot</t>
+  </si>
+  <si>
+    <t>AUBO</t>
+  </si>
+  <si>
+    <t>quadruped robot</t>
+  </si>
+  <si>
+    <t>Ghost Robotics</t>
+  </si>
+  <si>
+    <t>Amazon Robotics</t>
+  </si>
+  <si>
+    <t>Serve Robotics</t>
+  </si>
+  <si>
+    <t>SERV</t>
+  </si>
+  <si>
+    <t>["NASDAQ:AMZN"]</t>
+  </si>
+  <si>
+    <t>Robotis</t>
+  </si>
+  <si>
+    <t>108490</t>
+  </si>
+  <si>
+    <t>AMR, AGV</t>
+  </si>
+  <si>
+    <t>wearable</t>
+  </si>
+  <si>
+    <t>LFWD</t>
+  </si>
+  <si>
+    <t>Lifeward</t>
+  </si>
+  <si>
+    <t>7779</t>
+  </si>
+  <si>
+    <t>Cyberdyne</t>
+  </si>
+  <si>
+    <t>005930</t>
+  </si>
+  <si>
+    <t>Samsung Electronics</t>
+  </si>
+  <si>
+    <t>WI Robotics</t>
+  </si>
+  <si>
+    <t>robot</t>
+  </si>
+  <si>
+    <t>robot components</t>
+  </si>
+  <si>
+    <t>actuator</t>
+  </si>
+  <si>
+    <t>601689</t>
+  </si>
+  <si>
+    <t>Ningbo Tuopu Group</t>
+  </si>
+  <si>
+    <t>["NASDAQ:TSLA"]</t>
+  </si>
+  <si>
+    <t>Zhejiang Sanhua Intelligent Controls</t>
+  </si>
+  <si>
+    <t>002050</t>
+  </si>
+  <si>
+    <t>Harmonic Drive Systems</t>
+  </si>
+  <si>
+    <t>6324</t>
+  </si>
+  <si>
+    <t>6594</t>
+  </si>
+  <si>
+    <t>Nidec</t>
+  </si>
+  <si>
+    <t>688017</t>
+  </si>
+  <si>
+    <t>Leader Drive</t>
+  </si>
+  <si>
+    <t>Ningbo Zhongda Leader Intelligent Transmission</t>
+  </si>
+  <si>
+    <t>002896</t>
+  </si>
+  <si>
+    <t>gear reducer</t>
+  </si>
+  <si>
+    <t>Bosch Rexroth</t>
+  </si>
+  <si>
+    <t>6481</t>
+  </si>
+  <si>
+    <t>THK</t>
+  </si>
+  <si>
+    <t>6471</t>
+  </si>
+  <si>
+    <t>NSK</t>
+  </si>
+  <si>
+    <t>SKFB</t>
+  </si>
+  <si>
+    <t>SKF</t>
+  </si>
+  <si>
+    <t>Jiangsu Hengli Hydraulic</t>
+  </si>
+  <si>
+    <t>601100</t>
+  </si>
+  <si>
+    <t>Shanghai Beite Technology</t>
+  </si>
+  <si>
+    <t>603009</t>
+  </si>
+  <si>
+    <t>300580</t>
+  </si>
+  <si>
+    <t>Wuxi Best Precision Machinery</t>
+  </si>
+  <si>
+    <t>screw</t>
+  </si>
+  <si>
+    <t>6752</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>Maxon Motor</t>
+  </si>
+  <si>
+    <t>SIE</t>
+  </si>
+  <si>
+    <t>Siemens</t>
+  </si>
+  <si>
+    <t>300124</t>
+  </si>
+  <si>
+    <t>Shenzhen Inovance Technology</t>
+  </si>
+  <si>
+    <t>603728</t>
+  </si>
+  <si>
+    <t>Shanghai Moons Electrical Co.</t>
+  </si>
+  <si>
+    <t>003021</t>
+  </si>
+  <si>
+    <t>Shenzhen Zhaowei Machinery &amp; Electronic Co.</t>
+  </si>
+  <si>
+    <t>motor</t>
+  </si>
+  <si>
+    <t>Keyence Corporation</t>
+  </si>
+  <si>
+    <t>6861</t>
+  </si>
+  <si>
+    <t>6902</t>
+  </si>
+  <si>
+    <t>Denso Corporation</t>
+  </si>
+  <si>
+    <t>Honeywell International Inc.</t>
+  </si>
+  <si>
+    <t>HON</t>
+  </si>
+  <si>
+    <t>Cognex</t>
+  </si>
+  <si>
+    <t>CGNX</t>
+  </si>
+  <si>
+    <t>2382</t>
+  </si>
+  <si>
+    <t>Sunny Optical Technology</t>
+  </si>
+  <si>
+    <t>2498</t>
+  </si>
+  <si>
+    <t>Robosense</t>
+  </si>
+  <si>
+    <t>ATI</t>
+  </si>
+  <si>
+    <t>ATI Inc.</t>
+  </si>
+  <si>
+    <t>On Robot</t>
+  </si>
+  <si>
+    <t>Schunk</t>
+  </si>
+  <si>
+    <t>sensor</t>
+  </si>
+  <si>
+    <t>computing chip</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>NVIDIA Corporation</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>002594</t>
+  </si>
+  <si>
+    <t>BYD Company</t>
+  </si>
+  <si>
+    <t>300750</t>
+  </si>
+  <si>
+    <t>Contemporary Amperex Technology</t>
+  </si>
+  <si>
+    <t>SXSE</t>
+  </si>
+  <si>
+    <t>LG Energy Solution</t>
+  </si>
+  <si>
+    <t>373220</t>
   </si>
 </sst>
 </file>
@@ -1212,13 +1587,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043C6CD4-AF7A-0743-9909-CB9E059BF0DA}">
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <pane xSplit="9" ySplit="4" topLeftCell="J102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="4" topLeftCell="J155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B140" sqref="B140"/>
+      <selection pane="bottomRight" activeCell="B196" sqref="B196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1227,7 +1602,7 @@
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.83203125" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
@@ -3808,19 +4183,19 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>319</v>
+      </c>
+      <c r="C119" t="s">
         <v>253</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="E119" t="s">
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G119" t="s">
         <v>12</v>
@@ -3831,19 +4206,19 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
+        <v>319</v>
+      </c>
+      <c r="C120" t="s">
         <v>253</v>
       </c>
-      <c r="C120" t="s">
-        <v>254</v>
-      </c>
       <c r="D120" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E120" t="s">
         <v>40</v>
       </c>
       <c r="F120" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G120" t="s">
         <v>36</v>
@@ -3854,19 +4229,19 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
+        <v>319</v>
+      </c>
+      <c r="C121" t="s">
         <v>253</v>
       </c>
-      <c r="C121" t="s">
-        <v>254</v>
-      </c>
       <c r="D121" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E121" t="s">
         <v>40</v>
       </c>
       <c r="F121" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G121" t="s">
         <v>36</v>
@@ -3877,19 +4252,19 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>319</v>
+      </c>
+      <c r="C122" t="s">
         <v>253</v>
       </c>
-      <c r="C122" t="s">
-        <v>254</v>
-      </c>
       <c r="D122" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E122" t="s">
         <v>14</v>
       </c>
       <c r="F122" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G122" t="s">
         <v>12</v>
@@ -3900,21 +4275,1511 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
+        <v>319</v>
+      </c>
+      <c r="C123" t="s">
         <v>253</v>
       </c>
-      <c r="C123" t="s">
-        <v>254</v>
-      </c>
       <c r="D123" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E123" t="s">
         <v>32</v>
       </c>
       <c r="F123" t="s">
+        <v>263</v>
+      </c>
+      <c r="G123" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>319</v>
+      </c>
+      <c r="C124" t="s">
+        <v>253</v>
+      </c>
+      <c r="F124" t="s">
         <v>264</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G124" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>319</v>
+      </c>
+      <c r="C125" t="s">
+        <v>253</v>
+      </c>
+      <c r="F125" t="s">
+        <v>265</v>
+      </c>
+      <c r="G125" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>319</v>
+      </c>
+      <c r="C126" t="s">
+        <v>253</v>
+      </c>
+      <c r="F126" t="s">
+        <v>266</v>
+      </c>
+      <c r="G126" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>319</v>
+      </c>
+      <c r="C127" t="s">
+        <v>253</v>
+      </c>
+      <c r="F127" t="s">
+        <v>267</v>
+      </c>
+      <c r="G127" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>319</v>
+      </c>
+      <c r="C128" t="s">
+        <v>253</v>
+      </c>
+      <c r="F128" t="s">
+        <v>268</v>
+      </c>
+      <c r="G128" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>319</v>
+      </c>
+      <c r="C129" t="s">
+        <v>253</v>
+      </c>
+      <c r="F129" t="s">
+        <v>269</v>
+      </c>
+      <c r="G129" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>319</v>
+      </c>
+      <c r="C130" t="s">
+        <v>253</v>
+      </c>
+      <c r="F130" t="s">
+        <v>270</v>
+      </c>
+      <c r="G130" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>319</v>
+      </c>
+      <c r="C131" t="s">
+        <v>253</v>
+      </c>
+      <c r="F131" t="s">
+        <v>271</v>
+      </c>
+      <c r="G131" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>319</v>
+      </c>
+      <c r="C132" t="s">
+        <v>253</v>
+      </c>
+      <c r="F132" t="s">
+        <v>272</v>
+      </c>
+      <c r="G132" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>319</v>
+      </c>
+      <c r="C133" t="s">
+        <v>274</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E133" t="s">
+        <v>112</v>
+      </c>
+      <c r="F133" t="s">
+        <v>275</v>
+      </c>
+      <c r="G133" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>319</v>
+      </c>
+      <c r="C134" t="s">
+        <v>274</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E134" t="s">
+        <v>112</v>
+      </c>
+      <c r="F134" t="s">
+        <v>277</v>
+      </c>
+      <c r="G134" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>319</v>
+      </c>
+      <c r="C135" t="s">
+        <v>274</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E135" t="s">
+        <v>112</v>
+      </c>
+      <c r="F135" t="s">
+        <v>278</v>
+      </c>
+      <c r="G135" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>319</v>
+      </c>
+      <c r="C136" t="s">
+        <v>274</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E136" t="s">
+        <v>112</v>
+      </c>
+      <c r="F136" t="s">
+        <v>281</v>
+      </c>
+      <c r="G136" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>319</v>
+      </c>
+      <c r="C137" t="s">
+        <v>274</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E137" t="s">
+        <v>285</v>
+      </c>
+      <c r="F137" t="s">
+        <v>283</v>
+      </c>
+      <c r="G137" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>319</v>
+      </c>
+      <c r="C138" t="s">
+        <v>274</v>
+      </c>
+      <c r="F138" t="s">
+        <v>287</v>
+      </c>
+      <c r="G138" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>319</v>
+      </c>
+      <c r="C139" t="s">
+        <v>274</v>
+      </c>
+      <c r="F139" t="s">
+        <v>288</v>
+      </c>
+      <c r="G139" t="s">
+        <v>34</v>
+      </c>
+      <c r="H139" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>319</v>
+      </c>
+      <c r="C140" t="s">
+        <v>290</v>
+      </c>
+      <c r="F140" t="s">
+        <v>291</v>
+      </c>
+      <c r="G140" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>319</v>
+      </c>
+      <c r="C141" t="s">
+        <v>290</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E141" t="s">
+        <v>112</v>
+      </c>
+      <c r="F141" t="s">
+        <v>275</v>
+      </c>
+      <c r="G141" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>319</v>
+      </c>
+      <c r="C142" t="s">
+        <v>290</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E142" t="s">
+        <v>178</v>
+      </c>
+      <c r="F142" t="s">
+        <v>293</v>
+      </c>
+      <c r="G142" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>319</v>
+      </c>
+      <c r="C143" t="s">
+        <v>290</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E143" t="s">
+        <v>32</v>
+      </c>
+      <c r="F143" t="s">
+        <v>295</v>
+      </c>
+      <c r="G143" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>319</v>
+      </c>
+      <c r="C144" t="s">
+        <v>290</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E144" t="s">
+        <v>32</v>
+      </c>
+      <c r="F144" t="s">
+        <v>297</v>
+      </c>
+      <c r="G144" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>319</v>
+      </c>
+      <c r="C145" t="s">
+        <v>290</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E145" t="s">
+        <v>40</v>
+      </c>
+      <c r="F145" t="s">
+        <v>300</v>
+      </c>
+      <c r="G145" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>319</v>
+      </c>
+      <c r="C146" t="s">
+        <v>290</v>
+      </c>
+      <c r="F146" t="s">
+        <v>301</v>
+      </c>
+      <c r="G146" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>319</v>
+      </c>
+      <c r="C147" t="s">
+        <v>302</v>
+      </c>
+      <c r="F147" t="s">
+        <v>265</v>
+      </c>
+      <c r="G147" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>319</v>
+      </c>
+      <c r="C148" t="s">
+        <v>302</v>
+      </c>
+      <c r="F148" t="s">
+        <v>303</v>
+      </c>
+      <c r="G148" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>319</v>
+      </c>
+      <c r="C149" t="s">
+        <v>302</v>
+      </c>
+      <c r="F149" t="s">
+        <v>270</v>
+      </c>
+      <c r="G149" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>319</v>
+      </c>
+      <c r="C150" t="s">
+        <v>310</v>
+      </c>
+      <c r="F150" t="s">
+        <v>304</v>
+      </c>
+      <c r="G150" t="s">
+        <v>12</v>
+      </c>
+      <c r="H150" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>319</v>
+      </c>
+      <c r="C151" t="s">
+        <v>310</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E151" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151" t="s">
+        <v>305</v>
+      </c>
+      <c r="G151" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>319</v>
+      </c>
+      <c r="C152" t="s">
+        <v>310</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E152" t="s">
+        <v>112</v>
+      </c>
+      <c r="F152" t="s">
+        <v>281</v>
+      </c>
+      <c r="G152" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>319</v>
+      </c>
+      <c r="C153" t="s">
+        <v>310</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E153" t="s">
+        <v>32</v>
+      </c>
+      <c r="F153" t="s">
+        <v>308</v>
+      </c>
+      <c r="G153" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>319</v>
+      </c>
+      <c r="C154" t="s">
+        <v>311</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E154" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154" t="s">
+        <v>313</v>
+      </c>
+      <c r="G154" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>319</v>
+      </c>
+      <c r="C155" t="s">
+        <v>311</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E155" t="s">
+        <v>112</v>
+      </c>
+      <c r="F155" t="s">
+        <v>315</v>
+      </c>
+      <c r="G155" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>319</v>
+      </c>
+      <c r="C156" t="s">
+        <v>311</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E156" t="s">
+        <v>32</v>
+      </c>
+      <c r="F156" t="s">
+        <v>317</v>
+      </c>
+      <c r="G156" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>319</v>
+      </c>
+      <c r="C157" t="s">
+        <v>311</v>
+      </c>
+      <c r="F157" t="s">
+        <v>318</v>
+      </c>
+      <c r="G157" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>320</v>
+      </c>
+      <c r="C158" t="s">
+        <v>321</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E158" t="s">
+        <v>37</v>
+      </c>
+      <c r="F158" t="s">
+        <v>323</v>
+      </c>
+      <c r="G158" t="s">
+        <v>36</v>
+      </c>
+      <c r="I158" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>320</v>
+      </c>
+      <c r="C159" t="s">
+        <v>321</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E159" t="s">
+        <v>232</v>
+      </c>
+      <c r="F159" t="s">
+        <v>325</v>
+      </c>
+      <c r="G159" t="s">
+        <v>36</v>
+      </c>
+      <c r="I159" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>320</v>
+      </c>
+      <c r="C160" t="s">
+        <v>321</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E160" t="s">
+        <v>32</v>
+      </c>
+      <c r="F160" t="s">
+        <v>308</v>
+      </c>
+      <c r="G160" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>320</v>
+      </c>
+      <c r="C161" t="s">
+        <v>335</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E161" t="s">
+        <v>112</v>
+      </c>
+      <c r="F161" t="s">
+        <v>327</v>
+      </c>
+      <c r="G161" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>320</v>
+      </c>
+      <c r="C162" t="s">
+        <v>335</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E162" t="s">
+        <v>112</v>
+      </c>
+      <c r="F162" t="s">
+        <v>330</v>
+      </c>
+      <c r="G162" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>320</v>
+      </c>
+      <c r="C163" t="s">
+        <v>335</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E163" t="s">
+        <v>37</v>
+      </c>
+      <c r="F163" t="s">
+        <v>332</v>
+      </c>
+      <c r="G163" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>320</v>
+      </c>
+      <c r="C164" t="s">
+        <v>335</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E164" t="s">
+        <v>232</v>
+      </c>
+      <c r="F164" t="s">
+        <v>333</v>
+      </c>
+      <c r="G164" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>320</v>
+      </c>
+      <c r="C165" t="s">
+        <v>349</v>
+      </c>
+      <c r="F165" t="s">
+        <v>336</v>
+      </c>
+      <c r="G165" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>320</v>
+      </c>
+      <c r="C166" t="s">
+        <v>349</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E166" t="s">
+        <v>112</v>
+      </c>
+      <c r="F166" t="s">
+        <v>338</v>
+      </c>
+      <c r="G166" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>320</v>
+      </c>
+      <c r="C167" t="s">
+        <v>349</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E167" t="s">
+        <v>112</v>
+      </c>
+      <c r="F167" t="s">
+        <v>340</v>
+      </c>
+      <c r="G167" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>320</v>
+      </c>
+      <c r="C168" t="s">
+        <v>349</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E168" t="s">
+        <v>204</v>
+      </c>
+      <c r="F168" t="s">
+        <v>342</v>
+      </c>
+      <c r="G168" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>320</v>
+      </c>
+      <c r="C169" t="s">
+        <v>349</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E169" t="s">
+        <v>37</v>
+      </c>
+      <c r="F169" t="s">
+        <v>343</v>
+      </c>
+      <c r="G169" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>320</v>
+      </c>
+      <c r="C170" t="s">
+        <v>349</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E170" t="s">
+        <v>37</v>
+      </c>
+      <c r="F170" t="s">
+        <v>345</v>
+      </c>
+      <c r="G170" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>320</v>
+      </c>
+      <c r="C171" t="s">
+        <v>349</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E171" t="s">
+        <v>232</v>
+      </c>
+      <c r="F171" t="s">
+        <v>348</v>
+      </c>
+      <c r="G171" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>320</v>
+      </c>
+      <c r="C172" t="s">
+        <v>361</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E172" t="s">
+        <v>112</v>
+      </c>
+      <c r="F172" t="s">
+        <v>147</v>
+      </c>
+      <c r="G172" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>320</v>
+      </c>
+      <c r="C173" t="s">
+        <v>361</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E173" t="s">
+        <v>112</v>
+      </c>
+      <c r="F173" t="s">
+        <v>351</v>
+      </c>
+      <c r="G173" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>320</v>
+      </c>
+      <c r="C174" t="s">
+        <v>361</v>
+      </c>
+      <c r="F174" t="s">
+        <v>352</v>
+      </c>
+      <c r="G174" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>320</v>
+      </c>
+      <c r="C175" t="s">
+        <v>361</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E175" t="s">
+        <v>107</v>
+      </c>
+      <c r="F175" t="s">
+        <v>354</v>
+      </c>
+      <c r="G175" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>320</v>
+      </c>
+      <c r="C176" t="s">
+        <v>361</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E176" t="s">
+        <v>232</v>
+      </c>
+      <c r="F176" t="s">
+        <v>356</v>
+      </c>
+      <c r="G176" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>320</v>
+      </c>
+      <c r="C177" t="s">
+        <v>361</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E177" t="s">
+        <v>37</v>
+      </c>
+      <c r="F177" t="s">
+        <v>358</v>
+      </c>
+      <c r="G177" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>320</v>
+      </c>
+      <c r="C178" t="s">
+        <v>361</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E178" t="s">
+        <v>232</v>
+      </c>
+      <c r="F178" t="s">
+        <v>360</v>
+      </c>
+      <c r="G178" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>320</v>
+      </c>
+      <c r="C179" t="s">
+        <v>378</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E179" t="s">
+        <v>112</v>
+      </c>
+      <c r="F179" t="s">
+        <v>362</v>
+      </c>
+      <c r="G179" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>320</v>
+      </c>
+      <c r="C180" t="s">
+        <v>378</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E180" t="s">
+        <v>112</v>
+      </c>
+      <c r="F180" t="s">
+        <v>365</v>
+      </c>
+      <c r="G180" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>320</v>
+      </c>
+      <c r="C181" t="s">
+        <v>378</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E181" t="s">
+        <v>10</v>
+      </c>
+      <c r="F181" t="s">
+        <v>366</v>
+      </c>
+      <c r="G181" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>320</v>
+      </c>
+      <c r="C182" t="s">
+        <v>378</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E182" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" t="s">
+        <v>368</v>
+      </c>
+      <c r="G182" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>320</v>
+      </c>
+      <c r="C183" t="s">
+        <v>378</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E183" t="s">
+        <v>40</v>
+      </c>
+      <c r="F183" t="s">
+        <v>371</v>
+      </c>
+      <c r="G183" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>320</v>
+      </c>
+      <c r="C184" t="s">
+        <v>378</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E184" t="s">
+        <v>40</v>
+      </c>
+      <c r="F184" t="s">
+        <v>373</v>
+      </c>
+      <c r="G184" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>320</v>
+      </c>
+      <c r="C185" t="s">
+        <v>378</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E185" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185" t="s">
+        <v>375</v>
+      </c>
+      <c r="G185" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>320</v>
+      </c>
+      <c r="C186" t="s">
+        <v>378</v>
+      </c>
+      <c r="F186" t="s">
+        <v>376</v>
+      </c>
+      <c r="G186" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>320</v>
+      </c>
+      <c r="C187" t="s">
+        <v>378</v>
+      </c>
+      <c r="F187" t="s">
+        <v>377</v>
+      </c>
+      <c r="G187" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>320</v>
+      </c>
+      <c r="C188" t="s">
+        <v>378</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E188" t="s">
+        <v>112</v>
+      </c>
+      <c r="F188" t="s">
+        <v>147</v>
+      </c>
+      <c r="G188" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>320</v>
+      </c>
+      <c r="C189" t="s">
+        <v>378</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E189" t="s">
+        <v>112</v>
+      </c>
+      <c r="F189" t="s">
+        <v>277</v>
+      </c>
+      <c r="G189" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>320</v>
+      </c>
+      <c r="C190" t="s">
+        <v>379</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E190" t="s">
+        <v>10</v>
+      </c>
+      <c r="F190" t="s">
+        <v>381</v>
+      </c>
+      <c r="G190" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>320</v>
+      </c>
+      <c r="C191" t="s">
+        <v>382</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E191" t="s">
+        <v>232</v>
+      </c>
+      <c r="F191" t="s">
+        <v>384</v>
+      </c>
+      <c r="G191" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>320</v>
+      </c>
+      <c r="C192" t="s">
+        <v>382</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E192" t="s">
+        <v>387</v>
+      </c>
+      <c r="F192" t="s">
+        <v>386</v>
+      </c>
+      <c r="G192" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>320</v>
+      </c>
+      <c r="C193" t="s">
+        <v>382</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E193" t="s">
+        <v>32</v>
+      </c>
+      <c r="F193" t="s">
+        <v>388</v>
+      </c>
+      <c r="G193" t="s">
         <v>34</v>
       </c>
     </row>

--- a/data/stock_list.xlsx
+++ b/data/stock_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghunlee/Desktop/Pycharm/ValueChainMap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CED0EA-7CBD-F44F-9154-9F3D92633541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D842323-53F5-D54A-99DC-DF8C8BBF3DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22920" yWindow="600" windowWidth="28280" windowHeight="28200" xr2:uid="{85359153-6BE3-CA47-BCB1-57E1D79C5C5D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="469">
   <si>
     <t>class1</t>
   </si>
@@ -1206,6 +1206,243 @@
   </si>
   <si>
     <t>373220</t>
+  </si>
+  <si>
+    <t>cloud and data center</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>Alphabet</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>Meta Platforms</t>
+  </si>
+  <si>
+    <t>AMZN</t>
+  </si>
+  <si>
+    <t>Amazon.com</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>Microsoft Corporation</t>
+  </si>
+  <si>
+    <t>Alibaba</t>
+  </si>
+  <si>
+    <t>9988</t>
+  </si>
+  <si>
+    <t>0700</t>
+  </si>
+  <si>
+    <t>Tencent</t>
+  </si>
+  <si>
+    <t>fabless</t>
+  </si>
+  <si>
+    <t>semiconductor</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>Advanced Micro Devices</t>
+  </si>
+  <si>
+    <t>QCOM</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+  </si>
+  <si>
+    <t>Broadcom Inc</t>
+  </si>
+  <si>
+    <t>Qualcomm Incorporated</t>
+  </si>
+  <si>
+    <t>2454</t>
+  </si>
+  <si>
+    <t>MediaTek</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>000660</t>
+  </si>
+  <si>
+    <t>SK Hynics</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>Micron Technology</t>
+  </si>
+  <si>
+    <t>285A</t>
+  </si>
+  <si>
+    <t>Kioxia</t>
+  </si>
+  <si>
+    <t>CXMT</t>
+  </si>
+  <si>
+    <t>YMTC</t>
+  </si>
+  <si>
+    <t>2330</t>
+  </si>
+  <si>
+    <t>Taiwan Semiconductor Manufacturing Co.</t>
+  </si>
+  <si>
+    <t>INTC</t>
+  </si>
+  <si>
+    <t>Intel Corporation</t>
+  </si>
+  <si>
+    <t>IDM and foundary</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>United Microelectronics Corp.</t>
+  </si>
+  <si>
+    <t>0981</t>
+  </si>
+  <si>
+    <t>SMIC</t>
+  </si>
+  <si>
+    <t>equipment</t>
+  </si>
+  <si>
+    <t>ASML</t>
+  </si>
+  <si>
+    <t>ASML Holding</t>
+  </si>
+  <si>
+    <t>LRCX</t>
+  </si>
+  <si>
+    <t>Lam Research Corporation</t>
+  </si>
+  <si>
+    <t>AMAT</t>
+  </si>
+  <si>
+    <t>Applied Materials</t>
+  </si>
+  <si>
+    <t>8035</t>
+  </si>
+  <si>
+    <t>Tokyo Electron Ltd.</t>
+  </si>
+  <si>
+    <t>ASM</t>
+  </si>
+  <si>
+    <t>ASM International</t>
+  </si>
+  <si>
+    <t>KLAC</t>
+  </si>
+  <si>
+    <t>KLA Corporation</t>
+  </si>
+  <si>
+    <t>TER</t>
+  </si>
+  <si>
+    <t>Teradyne, Inc.</t>
+  </si>
+  <si>
+    <t>6857</t>
+  </si>
+  <si>
+    <t>Advantest Corp</t>
+  </si>
+  <si>
+    <t>002371</t>
+  </si>
+  <si>
+    <t>NAURA Technology Group Co Ltd</t>
+  </si>
+  <si>
+    <t>688912</t>
+  </si>
+  <si>
+    <t>Advanced Micro Fabrication Equipment Inc.</t>
+  </si>
+  <si>
+    <t>4063</t>
+  </si>
+  <si>
+    <t>Chin-Etsu Chemical Co Ltd</t>
+  </si>
+  <si>
+    <t>3436</t>
+  </si>
+  <si>
+    <t>SUMCO Corporation</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Air Liquide SA</t>
+  </si>
+  <si>
+    <t>APD</t>
+  </si>
+  <si>
+    <t>Air Prodects and Chemicals, Inc.</t>
+  </si>
+  <si>
+    <t>LIN</t>
+  </si>
+  <si>
+    <t>Linde plc</t>
+  </si>
+  <si>
+    <t>ENTG</t>
+  </si>
+  <si>
+    <t>Entegris</t>
+  </si>
+  <si>
+    <t>FORM</t>
+  </si>
+  <si>
+    <t>FormFactor, Inc</t>
+  </si>
+  <si>
+    <t>6515</t>
+  </si>
+  <si>
+    <t>WinWay Technology Co.</t>
+  </si>
+  <si>
+    <t>materials and components</t>
   </si>
 </sst>
 </file>
@@ -1587,13 +1824,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043C6CD4-AF7A-0743-9909-CB9E059BF0DA}">
-  <dimension ref="A1:I193"/>
+  <dimension ref="A1:I232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <pane xSplit="9" ySplit="4" topLeftCell="J155" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="4" topLeftCell="J188" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B196" sqref="B196"/>
+      <selection pane="bottomRight" activeCell="C223" sqref="C223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5783,6 +6020,891 @@
         <v>34</v>
       </c>
     </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>404</v>
+      </c>
+      <c r="C194" t="s">
+        <v>390</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E194" t="s">
+        <v>10</v>
+      </c>
+      <c r="F194" t="s">
+        <v>392</v>
+      </c>
+      <c r="G194" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>404</v>
+      </c>
+      <c r="C195" t="s">
+        <v>390</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E195" t="s">
+        <v>10</v>
+      </c>
+      <c r="F195" t="s">
+        <v>394</v>
+      </c>
+      <c r="G195" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>404</v>
+      </c>
+      <c r="C196" t="s">
+        <v>390</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E196" t="s">
+        <v>10</v>
+      </c>
+      <c r="F196" t="s">
+        <v>396</v>
+      </c>
+      <c r="G196" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>404</v>
+      </c>
+      <c r="C197" t="s">
+        <v>390</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E197" t="s">
+        <v>10</v>
+      </c>
+      <c r="F197" t="s">
+        <v>398</v>
+      </c>
+      <c r="G197" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>404</v>
+      </c>
+      <c r="C198" t="s">
+        <v>390</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E198" t="s">
+        <v>40</v>
+      </c>
+      <c r="F198" t="s">
+        <v>399</v>
+      </c>
+      <c r="G198" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>404</v>
+      </c>
+      <c r="C199" t="s">
+        <v>390</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E199" t="s">
+        <v>40</v>
+      </c>
+      <c r="F199" t="s">
+        <v>402</v>
+      </c>
+      <c r="G199" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>404</v>
+      </c>
+      <c r="C200" t="s">
+        <v>403</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E200" t="s">
+        <v>10</v>
+      </c>
+      <c r="F200" t="s">
+        <v>381</v>
+      </c>
+      <c r="G200" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>404</v>
+      </c>
+      <c r="C201" t="s">
+        <v>403</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E201" t="s">
+        <v>10</v>
+      </c>
+      <c r="F201" t="s">
+        <v>406</v>
+      </c>
+      <c r="G201" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>404</v>
+      </c>
+      <c r="C202" t="s">
+        <v>403</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E202" t="s">
+        <v>10</v>
+      </c>
+      <c r="F202" t="s">
+        <v>410</v>
+      </c>
+      <c r="G202" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>404</v>
+      </c>
+      <c r="C203" t="s">
+        <v>403</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E203" t="s">
+        <v>10</v>
+      </c>
+      <c r="F203" t="s">
+        <v>409</v>
+      </c>
+      <c r="G203" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>404</v>
+      </c>
+      <c r="C204" t="s">
+        <v>403</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E204" t="s">
+        <v>178</v>
+      </c>
+      <c r="F204" t="s">
+        <v>412</v>
+      </c>
+      <c r="G204" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>404</v>
+      </c>
+      <c r="C205" t="s">
+        <v>413</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E205" t="s">
+        <v>32</v>
+      </c>
+      <c r="F205" t="s">
+        <v>317</v>
+      </c>
+      <c r="G205" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>404</v>
+      </c>
+      <c r="C206" t="s">
+        <v>413</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E206" t="s">
+        <v>32</v>
+      </c>
+      <c r="F206" t="s">
+        <v>415</v>
+      </c>
+      <c r="G206" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>404</v>
+      </c>
+      <c r="C207" t="s">
+        <v>413</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E207" t="s">
+        <v>10</v>
+      </c>
+      <c r="F207" t="s">
+        <v>417</v>
+      </c>
+      <c r="G207" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>404</v>
+      </c>
+      <c r="C208" t="s">
+        <v>413</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E208" t="s">
+        <v>112</v>
+      </c>
+      <c r="F208" t="s">
+        <v>419</v>
+      </c>
+      <c r="G208" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>404</v>
+      </c>
+      <c r="C209" t="s">
+        <v>413</v>
+      </c>
+      <c r="F209" t="s">
+        <v>420</v>
+      </c>
+      <c r="G209" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>404</v>
+      </c>
+      <c r="C210" t="s">
+        <v>413</v>
+      </c>
+      <c r="F210" t="s">
+        <v>421</v>
+      </c>
+      <c r="G210" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>404</v>
+      </c>
+      <c r="C211" t="s">
+        <v>426</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E211" t="s">
+        <v>178</v>
+      </c>
+      <c r="F211" t="s">
+        <v>423</v>
+      </c>
+      <c r="G211" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>404</v>
+      </c>
+      <c r="C212" t="s">
+        <v>426</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E212" t="s">
+        <v>10</v>
+      </c>
+      <c r="F212" t="s">
+        <v>425</v>
+      </c>
+      <c r="G212" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>404</v>
+      </c>
+      <c r="C213" t="s">
+        <v>426</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E213" t="s">
+        <v>178</v>
+      </c>
+      <c r="F213" t="s">
+        <v>428</v>
+      </c>
+      <c r="G213" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>404</v>
+      </c>
+      <c r="C214" t="s">
+        <v>426</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E214" t="s">
+        <v>40</v>
+      </c>
+      <c r="F214" t="s">
+        <v>430</v>
+      </c>
+      <c r="G214" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>404</v>
+      </c>
+      <c r="C215" t="s">
+        <v>431</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E215" t="s">
+        <v>174</v>
+      </c>
+      <c r="F215" t="s">
+        <v>433</v>
+      </c>
+      <c r="G215" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>404</v>
+      </c>
+      <c r="C216" t="s">
+        <v>431</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E216" t="s">
+        <v>10</v>
+      </c>
+      <c r="F216" t="s">
+        <v>435</v>
+      </c>
+      <c r="G216" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>404</v>
+      </c>
+      <c r="C217" t="s">
+        <v>431</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E217" t="s">
+        <v>10</v>
+      </c>
+      <c r="F217" t="s">
+        <v>437</v>
+      </c>
+      <c r="G217" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>404</v>
+      </c>
+      <c r="C218" t="s">
+        <v>431</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E218" t="s">
+        <v>112</v>
+      </c>
+      <c r="F218" t="s">
+        <v>439</v>
+      </c>
+      <c r="G218" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>404</v>
+      </c>
+      <c r="C219" t="s">
+        <v>431</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E219" t="s">
+        <v>174</v>
+      </c>
+      <c r="F219" t="s">
+        <v>441</v>
+      </c>
+      <c r="G219" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>404</v>
+      </c>
+      <c r="C220" t="s">
+        <v>431</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E220" t="s">
+        <v>10</v>
+      </c>
+      <c r="F220" t="s">
+        <v>443</v>
+      </c>
+      <c r="G220" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>404</v>
+      </c>
+      <c r="C221" t="s">
+        <v>431</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E221" t="s">
+        <v>10</v>
+      </c>
+      <c r="F221" t="s">
+        <v>445</v>
+      </c>
+      <c r="G221" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>404</v>
+      </c>
+      <c r="C222" t="s">
+        <v>431</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E222" t="s">
+        <v>112</v>
+      </c>
+      <c r="F222" t="s">
+        <v>447</v>
+      </c>
+      <c r="G222" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>404</v>
+      </c>
+      <c r="C223" t="s">
+        <v>431</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E223" t="s">
+        <v>232</v>
+      </c>
+      <c r="F223" t="s">
+        <v>449</v>
+      </c>
+      <c r="G223" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>404</v>
+      </c>
+      <c r="C224" t="s">
+        <v>431</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E224" t="s">
+        <v>37</v>
+      </c>
+      <c r="F224" t="s">
+        <v>451</v>
+      </c>
+      <c r="G224" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>404</v>
+      </c>
+      <c r="C225" t="s">
+        <v>468</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E225" t="s">
+        <v>112</v>
+      </c>
+      <c r="F225" t="s">
+        <v>453</v>
+      </c>
+      <c r="G225" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>404</v>
+      </c>
+      <c r="C226" t="s">
+        <v>468</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E226" t="s">
+        <v>112</v>
+      </c>
+      <c r="F226" t="s">
+        <v>455</v>
+      </c>
+      <c r="G226" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>404</v>
+      </c>
+      <c r="C227" t="s">
+        <v>468</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E227" t="s">
+        <v>174</v>
+      </c>
+      <c r="F227" t="s">
+        <v>457</v>
+      </c>
+      <c r="G227" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>404</v>
+      </c>
+      <c r="C228" t="s">
+        <v>468</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E228" t="s">
+        <v>14</v>
+      </c>
+      <c r="F228" t="s">
+        <v>459</v>
+      </c>
+      <c r="G228" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>404</v>
+      </c>
+      <c r="C229" t="s">
+        <v>468</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E229" t="s">
+        <v>10</v>
+      </c>
+      <c r="F229" t="s">
+        <v>461</v>
+      </c>
+      <c r="G229" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>404</v>
+      </c>
+      <c r="C230" t="s">
+        <v>468</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E230" t="s">
+        <v>10</v>
+      </c>
+      <c r="F230" t="s">
+        <v>463</v>
+      </c>
+      <c r="G230" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>404</v>
+      </c>
+      <c r="C231" t="s">
+        <v>468</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E231" t="s">
+        <v>10</v>
+      </c>
+      <c r="F231" t="s">
+        <v>465</v>
+      </c>
+      <c r="G231" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>404</v>
+      </c>
+      <c r="C232" t="s">
+        <v>468</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E232" t="s">
+        <v>178</v>
+      </c>
+      <c r="F232" t="s">
+        <v>467</v>
+      </c>
+      <c r="G232" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/stock_list.xlsx
+++ b/data/stock_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghunlee/Desktop/Pycharm/ValueChainMap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D842323-53F5-D54A-99DC-DF8C8BBF3DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1358941-599C-8547-B330-92273186DBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22920" yWindow="600" windowWidth="28280" windowHeight="28200" xr2:uid="{85359153-6BE3-CA47-BCB1-57E1D79C5C5D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="585">
   <si>
     <t>class1</t>
   </si>
@@ -1443,6 +1443,354 @@
   </si>
   <si>
     <t>materials and components</t>
+  </si>
+  <si>
+    <t>electronics</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>composite</t>
+  </si>
+  <si>
+    <t>066570</t>
+  </si>
+  <si>
+    <t>LG Electronics</t>
+  </si>
+  <si>
+    <t>desktop &amp; laptop</t>
+  </si>
+  <si>
+    <t>HPQ</t>
+  </si>
+  <si>
+    <t>HP Inc.</t>
+  </si>
+  <si>
+    <t>0992</t>
+  </si>
+  <si>
+    <t>Lenovo</t>
+  </si>
+  <si>
+    <t>2357</t>
+  </si>
+  <si>
+    <t>ASUS</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>OPPO</t>
+  </si>
+  <si>
+    <t>VIVO</t>
+  </si>
+  <si>
+    <t>Honor</t>
+  </si>
+  <si>
+    <t>OEM &amp; ODM</t>
+  </si>
+  <si>
+    <t>2354</t>
+  </si>
+  <si>
+    <t>Foxconn</t>
+  </si>
+  <si>
+    <t>Quanta Computer</t>
+  </si>
+  <si>
+    <t>2324</t>
+  </si>
+  <si>
+    <t>["NASDAQ:AAPL", "NYSE:HPQ", "HKEX:0992", "NASDAQ:MSFT"]</t>
+  </si>
+  <si>
+    <t>Compal Electronics</t>
+  </si>
+  <si>
+    <t>3231</t>
+  </si>
+  <si>
+    <t>Wistron</t>
+  </si>
+  <si>
+    <t>["NASDAQ:NVDA"]</t>
+  </si>
+  <si>
+    <t>2356</t>
+  </si>
+  <si>
+    <t>Inventec</t>
+  </si>
+  <si>
+    <t>4938</t>
+  </si>
+  <si>
+    <t>Pegatron</t>
+  </si>
+  <si>
+    <t>["NASDAQ:AAPL","TWSE:2357","NASDAQ:MSFT"]</t>
+  </si>
+  <si>
+    <t>["NASDAQ:AAPL","NYSE:HPQ","HKEX:0992"]</t>
+  </si>
+  <si>
+    <t>["NASDAQ:HPQ","TWSE:2353","TSE:6588"]</t>
+  </si>
+  <si>
+    <t>smart glass</t>
+  </si>
+  <si>
+    <t>452430</t>
+  </si>
+  <si>
+    <t>Sapien Semiconductors</t>
+  </si>
+  <si>
+    <t>688343</t>
+  </si>
+  <si>
+    <t>Intellifusion Technologies</t>
+  </si>
+  <si>
+    <t>300790</t>
+  </si>
+  <si>
+    <t>Dongguan YuTong Optical Technology</t>
+  </si>
+  <si>
+    <t>camera</t>
+  </si>
+  <si>
+    <t>components</t>
+  </si>
+  <si>
+    <t>011070</t>
+  </si>
+  <si>
+    <t>LG Innotek</t>
+  </si>
+  <si>
+    <t>["NASDAQ:AAPL"]</t>
+  </si>
+  <si>
+    <t>009150</t>
+  </si>
+  <si>
+    <t>Samsung Electro-Mechanics</t>
+  </si>
+  <si>
+    <t>097520</t>
+  </si>
+  <si>
+    <t>MCNEX</t>
+  </si>
+  <si>
+    <t>053450</t>
+  </si>
+  <si>
+    <t>SEKONIX</t>
+  </si>
+  <si>
+    <t>3008</t>
+  </si>
+  <si>
+    <t>Largan</t>
+  </si>
+  <si>
+    <t>PCB &amp; FPCB</t>
+  </si>
+  <si>
+    <t>353200</t>
+  </si>
+  <si>
+    <t>Daeduck Electronics</t>
+  </si>
+  <si>
+    <t>Korea Citcuit</t>
+  </si>
+  <si>
+    <t>007810</t>
+  </si>
+  <si>
+    <t>222800</t>
+  </si>
+  <si>
+    <t>Simmtech</t>
+  </si>
+  <si>
+    <t>356860</t>
+  </si>
+  <si>
+    <t>TLB</t>
+  </si>
+  <si>
+    <t>195870</t>
+  </si>
+  <si>
+    <t>Haesung DS</t>
+  </si>
+  <si>
+    <t>ISU Petasys</t>
+  </si>
+  <si>
+    <t>007660</t>
+  </si>
+  <si>
+    <t>TTMI</t>
+  </si>
+  <si>
+    <t>TTM Technologies</t>
+  </si>
+  <si>
+    <t>4062</t>
+  </si>
+  <si>
+    <t>Ibiden</t>
+  </si>
+  <si>
+    <t>6967</t>
+  </si>
+  <si>
+    <t>Shinko Electric</t>
+  </si>
+  <si>
+    <t>8046</t>
+  </si>
+  <si>
+    <t>Nan Ya Printed Circuit Board Corporation</t>
+  </si>
+  <si>
+    <t>3189</t>
+  </si>
+  <si>
+    <t>Kinsus Interconnect Technology</t>
+  </si>
+  <si>
+    <t>3037</t>
+  </si>
+  <si>
+    <t>Unimicron Technology</t>
+  </si>
+  <si>
+    <t>090460</t>
+  </si>
+  <si>
+    <t>BH Co.</t>
+  </si>
+  <si>
+    <t>4958</t>
+  </si>
+  <si>
+    <t>Zhen Ding Technology</t>
+  </si>
+  <si>
+    <t>Samhwa Capacitor Co.</t>
+  </si>
+  <si>
+    <t>001820</t>
+  </si>
+  <si>
+    <t>6981</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>6976</t>
+  </si>
+  <si>
+    <t>Taiyo Yuden</t>
+  </si>
+  <si>
+    <t>6762</t>
+  </si>
+  <si>
+    <t>TDK Corporation</t>
+  </si>
+  <si>
+    <t>2327</t>
+  </si>
+  <si>
+    <t>Yageo Corporation</t>
+  </si>
+  <si>
+    <t>MLCC</t>
+  </si>
+  <si>
+    <t>213420</t>
+  </si>
+  <si>
+    <t>Duksan Neolux Co.</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>272290</t>
+  </si>
+  <si>
+    <t>INNOX Advanced Materials</t>
+  </si>
+  <si>
+    <t>239890</t>
+  </si>
+  <si>
+    <t>P&amp;H Tech Co.</t>
+  </si>
+  <si>
+    <t>178920</t>
+  </si>
+  <si>
+    <t>PI Advanced Materials Co.</t>
+  </si>
+  <si>
+    <t>108320</t>
+  </si>
+  <si>
+    <t>LX Semicon</t>
+  </si>
+  <si>
+    <t>3034</t>
+  </si>
+  <si>
+    <t>Novatek Microelectronics Corp.</t>
+  </si>
+  <si>
+    <t>GLW</t>
+  </si>
+  <si>
+    <t>Corning Incorporated</t>
+  </si>
+  <si>
+    <t>fordable</t>
+  </si>
+  <si>
+    <t>060720</t>
+  </si>
+  <si>
+    <t>KH Vatec Co.</t>
+  </si>
+  <si>
+    <t>148150</t>
+  </si>
+  <si>
+    <t>Segyung Hi Tech Co.</t>
+  </si>
+  <si>
+    <t>441270</t>
+  </si>
+  <si>
+    <t>Fine M-Tec</t>
   </si>
 </sst>
 </file>
@@ -1824,13 +2172,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043C6CD4-AF7A-0743-9909-CB9E059BF0DA}">
-  <dimension ref="A1:I232"/>
+  <dimension ref="A1:I288"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <pane xSplit="9" ySplit="4" topLeftCell="J188" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="4" topLeftCell="J272" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C223" sqref="C223"/>
+      <selection pane="bottomRight" activeCell="B242" sqref="B242:B293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6905,6 +7253,1294 @@
         <v>179</v>
       </c>
     </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>469</v>
+      </c>
+      <c r="C233" t="s">
+        <v>472</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E233" t="s">
+        <v>10</v>
+      </c>
+      <c r="F233" t="s">
+        <v>471</v>
+      </c>
+      <c r="G233" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>469</v>
+      </c>
+      <c r="C234" t="s">
+        <v>472</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E234" t="s">
+        <v>32</v>
+      </c>
+      <c r="F234" t="s">
+        <v>317</v>
+      </c>
+      <c r="G234" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>469</v>
+      </c>
+      <c r="C235" t="s">
+        <v>472</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E235" t="s">
+        <v>32</v>
+      </c>
+      <c r="F235" t="s">
+        <v>474</v>
+      </c>
+      <c r="G235" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>469</v>
+      </c>
+      <c r="C236" t="s">
+        <v>475</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E236" t="s">
+        <v>14</v>
+      </c>
+      <c r="F236" t="s">
+        <v>477</v>
+      </c>
+      <c r="G236" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>469</v>
+      </c>
+      <c r="C237" t="s">
+        <v>475</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E237" t="s">
+        <v>40</v>
+      </c>
+      <c r="F237" t="s">
+        <v>479</v>
+      </c>
+      <c r="G237" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>469</v>
+      </c>
+      <c r="C238" t="s">
+        <v>475</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E238" t="s">
+        <v>178</v>
+      </c>
+      <c r="F238" t="s">
+        <v>481</v>
+      </c>
+      <c r="G238" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>469</v>
+      </c>
+      <c r="C239" t="s">
+        <v>482</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E239" t="s">
+        <v>40</v>
+      </c>
+      <c r="F239" t="s">
+        <v>259</v>
+      </c>
+      <c r="G239" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>469</v>
+      </c>
+      <c r="C240" t="s">
+        <v>482</v>
+      </c>
+      <c r="F240" t="s">
+        <v>483</v>
+      </c>
+      <c r="G240" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>469</v>
+      </c>
+      <c r="C241" t="s">
+        <v>482</v>
+      </c>
+      <c r="F241" t="s">
+        <v>484</v>
+      </c>
+      <c r="G241" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>469</v>
+      </c>
+      <c r="C242" t="s">
+        <v>482</v>
+      </c>
+      <c r="F242" t="s">
+        <v>485</v>
+      </c>
+      <c r="G242" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>469</v>
+      </c>
+      <c r="C243" t="s">
+        <v>486</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E243" t="s">
+        <v>178</v>
+      </c>
+      <c r="F243" t="s">
+        <v>488</v>
+      </c>
+      <c r="G243" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>469</v>
+      </c>
+      <c r="C244" t="s">
+        <v>486</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E244" t="s">
+        <v>178</v>
+      </c>
+      <c r="F244" t="s">
+        <v>489</v>
+      </c>
+      <c r="G244" t="s">
+        <v>179</v>
+      </c>
+      <c r="I244" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>469</v>
+      </c>
+      <c r="C245" t="s">
+        <v>486</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E245" t="s">
+        <v>178</v>
+      </c>
+      <c r="F245" t="s">
+        <v>492</v>
+      </c>
+      <c r="G245" t="s">
+        <v>179</v>
+      </c>
+      <c r="I245" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>469</v>
+      </c>
+      <c r="C246" t="s">
+        <v>486</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E246" t="s">
+        <v>178</v>
+      </c>
+      <c r="F246" t="s">
+        <v>494</v>
+      </c>
+      <c r="G246" t="s">
+        <v>179</v>
+      </c>
+      <c r="I246" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>469</v>
+      </c>
+      <c r="C247" t="s">
+        <v>486</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E247" t="s">
+        <v>178</v>
+      </c>
+      <c r="F247" t="s">
+        <v>497</v>
+      </c>
+      <c r="G247" t="s">
+        <v>179</v>
+      </c>
+      <c r="I247" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>469</v>
+      </c>
+      <c r="C248" t="s">
+        <v>486</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E248" t="s">
+        <v>178</v>
+      </c>
+      <c r="F248" t="s">
+        <v>499</v>
+      </c>
+      <c r="G248" t="s">
+        <v>179</v>
+      </c>
+      <c r="I248" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>469</v>
+      </c>
+      <c r="C249" t="s">
+        <v>503</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E249" t="s">
+        <v>10</v>
+      </c>
+      <c r="F249" t="s">
+        <v>394</v>
+      </c>
+      <c r="G249" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>469</v>
+      </c>
+      <c r="C250" t="s">
+        <v>503</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E250" t="s">
+        <v>32</v>
+      </c>
+      <c r="F250" t="s">
+        <v>505</v>
+      </c>
+      <c r="G250" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>469</v>
+      </c>
+      <c r="C251" t="s">
+        <v>503</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E251" t="s">
+        <v>37</v>
+      </c>
+      <c r="F251" t="s">
+        <v>507</v>
+      </c>
+      <c r="G251" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>469</v>
+      </c>
+      <c r="C252" t="s">
+        <v>503</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E252" t="s">
+        <v>232</v>
+      </c>
+      <c r="F252" t="s">
+        <v>509</v>
+      </c>
+      <c r="G252" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>511</v>
+      </c>
+      <c r="C253" t="s">
+        <v>510</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E253" t="s">
+        <v>32</v>
+      </c>
+      <c r="F253" t="s">
+        <v>513</v>
+      </c>
+      <c r="G253" t="s">
+        <v>34</v>
+      </c>
+      <c r="I253" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>511</v>
+      </c>
+      <c r="C254" t="s">
+        <v>510</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E254" t="s">
+        <v>32</v>
+      </c>
+      <c r="F254" t="s">
+        <v>516</v>
+      </c>
+      <c r="G254" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>511</v>
+      </c>
+      <c r="C255" t="s">
+        <v>510</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E255" t="s">
+        <v>32</v>
+      </c>
+      <c r="F255" t="s">
+        <v>518</v>
+      </c>
+      <c r="G255" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>511</v>
+      </c>
+      <c r="C256" t="s">
+        <v>510</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E256" t="s">
+        <v>32</v>
+      </c>
+      <c r="F256" t="s">
+        <v>520</v>
+      </c>
+      <c r="G256" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>511</v>
+      </c>
+      <c r="C257" t="s">
+        <v>510</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E257" t="s">
+        <v>40</v>
+      </c>
+      <c r="F257" t="s">
+        <v>371</v>
+      </c>
+      <c r="G257" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>511</v>
+      </c>
+      <c r="C258" t="s">
+        <v>510</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E258" t="s">
+        <v>178</v>
+      </c>
+      <c r="F258" t="s">
+        <v>522</v>
+      </c>
+      <c r="G258" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>511</v>
+      </c>
+      <c r="C259" t="s">
+        <v>523</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E259" t="s">
+        <v>32</v>
+      </c>
+      <c r="F259" t="s">
+        <v>525</v>
+      </c>
+      <c r="G259" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>511</v>
+      </c>
+      <c r="C260" t="s">
+        <v>523</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E260" t="s">
+        <v>32</v>
+      </c>
+      <c r="F260" t="s">
+        <v>526</v>
+      </c>
+      <c r="G260" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>511</v>
+      </c>
+      <c r="C261" t="s">
+        <v>523</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E261" t="s">
+        <v>32</v>
+      </c>
+      <c r="F261" t="s">
+        <v>529</v>
+      </c>
+      <c r="G261" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>511</v>
+      </c>
+      <c r="C262" t="s">
+        <v>523</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E262" t="s">
+        <v>32</v>
+      </c>
+      <c r="F262" t="s">
+        <v>531</v>
+      </c>
+      <c r="G262" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>511</v>
+      </c>
+      <c r="C263" t="s">
+        <v>523</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E263" t="s">
+        <v>32</v>
+      </c>
+      <c r="F263" t="s">
+        <v>533</v>
+      </c>
+      <c r="G263" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>511</v>
+      </c>
+      <c r="C264" t="s">
+        <v>523</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E264" t="s">
+        <v>32</v>
+      </c>
+      <c r="F264" t="s">
+        <v>534</v>
+      </c>
+      <c r="G264" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>511</v>
+      </c>
+      <c r="C265" t="s">
+        <v>523</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E265" t="s">
+        <v>10</v>
+      </c>
+      <c r="F265" t="s">
+        <v>537</v>
+      </c>
+      <c r="G265" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>511</v>
+      </c>
+      <c r="C266" t="s">
+        <v>523</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E266" t="s">
+        <v>112</v>
+      </c>
+      <c r="F266" t="s">
+        <v>539</v>
+      </c>
+      <c r="G266" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>511</v>
+      </c>
+      <c r="C267" t="s">
+        <v>523</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E267" t="s">
+        <v>112</v>
+      </c>
+      <c r="F267" t="s">
+        <v>541</v>
+      </c>
+      <c r="G267" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>511</v>
+      </c>
+      <c r="C268" t="s">
+        <v>523</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E268" t="s">
+        <v>178</v>
+      </c>
+      <c r="F268" t="s">
+        <v>543</v>
+      </c>
+      <c r="G268" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>511</v>
+      </c>
+      <c r="C269" t="s">
+        <v>523</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E269" t="s">
+        <v>178</v>
+      </c>
+      <c r="F269" t="s">
+        <v>545</v>
+      </c>
+      <c r="G269" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>511</v>
+      </c>
+      <c r="C270" t="s">
+        <v>523</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E270" t="s">
+        <v>178</v>
+      </c>
+      <c r="F270" t="s">
+        <v>547</v>
+      </c>
+      <c r="G270" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>511</v>
+      </c>
+      <c r="C271" t="s">
+        <v>523</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E271" t="s">
+        <v>32</v>
+      </c>
+      <c r="F271" t="s">
+        <v>549</v>
+      </c>
+      <c r="G271" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>511</v>
+      </c>
+      <c r="C272" t="s">
+        <v>523</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E272" t="s">
+        <v>178</v>
+      </c>
+      <c r="F272" t="s">
+        <v>551</v>
+      </c>
+      <c r="G272" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>511</v>
+      </c>
+      <c r="C273" t="s">
+        <v>562</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E273" t="s">
+        <v>32</v>
+      </c>
+      <c r="F273" t="s">
+        <v>516</v>
+      </c>
+      <c r="G273" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>511</v>
+      </c>
+      <c r="C274" t="s">
+        <v>562</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E274" t="s">
+        <v>32</v>
+      </c>
+      <c r="F274" t="s">
+        <v>552</v>
+      </c>
+      <c r="G274" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>511</v>
+      </c>
+      <c r="C275" t="s">
+        <v>562</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E275" t="s">
+        <v>112</v>
+      </c>
+      <c r="F275" t="s">
+        <v>555</v>
+      </c>
+      <c r="G275" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>511</v>
+      </c>
+      <c r="C276" t="s">
+        <v>562</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E276" t="s">
+        <v>112</v>
+      </c>
+      <c r="F276" t="s">
+        <v>557</v>
+      </c>
+      <c r="G276" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>511</v>
+      </c>
+      <c r="C277" t="s">
+        <v>562</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E277" t="s">
+        <v>112</v>
+      </c>
+      <c r="F277" t="s">
+        <v>559</v>
+      </c>
+      <c r="G277" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>511</v>
+      </c>
+      <c r="C278" t="s">
+        <v>562</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E278" t="s">
+        <v>178</v>
+      </c>
+      <c r="F278" t="s">
+        <v>561</v>
+      </c>
+      <c r="G278" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>511</v>
+      </c>
+      <c r="C279" t="s">
+        <v>565</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E279" t="s">
+        <v>32</v>
+      </c>
+      <c r="F279" t="s">
+        <v>564</v>
+      </c>
+      <c r="G279" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>511</v>
+      </c>
+      <c r="C280" t="s">
+        <v>565</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E280" t="s">
+        <v>32</v>
+      </c>
+      <c r="F280" t="s">
+        <v>567</v>
+      </c>
+      <c r="G280" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>511</v>
+      </c>
+      <c r="C281" t="s">
+        <v>565</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E281" t="s">
+        <v>32</v>
+      </c>
+      <c r="F281" t="s">
+        <v>569</v>
+      </c>
+      <c r="G281" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>511</v>
+      </c>
+      <c r="C282" t="s">
+        <v>565</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E282" t="s">
+        <v>32</v>
+      </c>
+      <c r="F282" t="s">
+        <v>571</v>
+      </c>
+      <c r="G282" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>511</v>
+      </c>
+      <c r="C283" t="s">
+        <v>565</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E283" t="s">
+        <v>32</v>
+      </c>
+      <c r="F283" t="s">
+        <v>573</v>
+      </c>
+      <c r="G283" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>511</v>
+      </c>
+      <c r="C284" t="s">
+        <v>565</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E284" t="s">
+        <v>178</v>
+      </c>
+      <c r="F284" t="s">
+        <v>575</v>
+      </c>
+      <c r="G284" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>511</v>
+      </c>
+      <c r="C285" t="s">
+        <v>565</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E285" t="s">
+        <v>14</v>
+      </c>
+      <c r="F285" t="s">
+        <v>577</v>
+      </c>
+      <c r="G285" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>511</v>
+      </c>
+      <c r="C286" t="s">
+        <v>578</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E286" t="s">
+        <v>32</v>
+      </c>
+      <c r="F286" t="s">
+        <v>580</v>
+      </c>
+      <c r="G286" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>511</v>
+      </c>
+      <c r="C287" t="s">
+        <v>578</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E287" t="s">
+        <v>32</v>
+      </c>
+      <c r="F287" t="s">
+        <v>582</v>
+      </c>
+      <c r="G287" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>511</v>
+      </c>
+      <c r="C288" t="s">
+        <v>578</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E288" t="s">
+        <v>32</v>
+      </c>
+      <c r="F288" t="s">
+        <v>584</v>
+      </c>
+      <c r="G288" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/stock_list.xlsx
+++ b/data/stock_list.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghunlee/Desktop/Pycharm/ValueChainMap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1358941-599C-8547-B330-92273186DBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9422F47-9D6E-C34F-8410-114DB23D0E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22920" yWindow="600" windowWidth="28280" windowHeight="28200" xr2:uid="{85359153-6BE3-CA47-BCB1-57E1D79C5C5D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="stock list" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="642">
   <si>
     <t>class1</t>
   </si>
@@ -1791,6 +1791,177 @@
   </si>
   <si>
     <t>Fine M-Tec</t>
+  </si>
+  <si>
+    <t>financial institutions</t>
+  </si>
+  <si>
+    <t>financial issuer</t>
+  </si>
+  <si>
+    <t>JPM</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase</t>
+  </si>
+  <si>
+    <t>8306</t>
+  </si>
+  <si>
+    <t>Mitsubishi UFJ Financial Group</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HSBC Holdings</t>
+  </si>
+  <si>
+    <t>8473</t>
+  </si>
+  <si>
+    <t>SBI Holdings</t>
+  </si>
+  <si>
+    <t>SIX Swiss Exchange</t>
+  </si>
+  <si>
+    <t>asset management</t>
+  </si>
+  <si>
+    <t>BLK</t>
+  </si>
+  <si>
+    <t>BlackRock</t>
+  </si>
+  <si>
+    <t>BEN</t>
+  </si>
+  <si>
+    <t>Franklin Resources</t>
+  </si>
+  <si>
+    <t>UBSG</t>
+  </si>
+  <si>
+    <t>UBS Group AG</t>
+  </si>
+  <si>
+    <t>CRCL</t>
+  </si>
+  <si>
+    <t>Circle Internet Group</t>
+  </si>
+  <si>
+    <t>Tether</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>COIN</t>
+  </si>
+  <si>
+    <t>Coinbase Global</t>
+  </si>
+  <si>
+    <t>Binance</t>
+  </si>
+  <si>
+    <t>Upbit</t>
+  </si>
+  <si>
+    <t>Bithumb</t>
+  </si>
+  <si>
+    <t>Coin One</t>
+  </si>
+  <si>
+    <t>Uniswap</t>
+  </si>
+  <si>
+    <t>PancakeSwap</t>
+  </si>
+  <si>
+    <t>Securitize</t>
+  </si>
+  <si>
+    <t>STO</t>
+  </si>
+  <si>
+    <t>tZero</t>
+  </si>
+  <si>
+    <t>377300</t>
+  </si>
+  <si>
+    <t>Kakaopay Corp</t>
+  </si>
+  <si>
+    <t>235420</t>
+  </si>
+  <si>
+    <t>Naver Corp.</t>
+  </si>
+  <si>
+    <t>HOOD</t>
+  </si>
+  <si>
+    <t>Robinhood Markets</t>
+  </si>
+  <si>
+    <t>PYPL</t>
+  </si>
+  <si>
+    <t>PayPal Holdings</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>Block, Inc</t>
+  </si>
+  <si>
+    <t>Revolut</t>
+  </si>
+  <si>
+    <t>Stripe</t>
+  </si>
+  <si>
+    <t>SoFi Technologies</t>
+  </si>
+  <si>
+    <t>SOFI</t>
+  </si>
+  <si>
+    <t>BKKT</t>
+  </si>
+  <si>
+    <t>Bakkt Holdings</t>
+  </si>
+  <si>
+    <t>fintech</t>
+  </si>
+  <si>
+    <t>custody</t>
+  </si>
+  <si>
+    <t>Fireblocks</t>
+  </si>
+  <si>
+    <t>KODA</t>
+  </si>
+  <si>
+    <t>KDAC</t>
+  </si>
+  <si>
+    <t>Bitgo Korea</t>
+  </si>
+  <si>
+    <t>DiCustody</t>
+  </si>
+  <si>
+    <t>blockchain</t>
   </si>
 </sst>
 </file>
@@ -2172,13 +2343,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043C6CD4-AF7A-0743-9909-CB9E059BF0DA}">
-  <dimension ref="A1:I288"/>
+  <dimension ref="A1:I321"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <pane xSplit="9" ySplit="4" topLeftCell="J272" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="4" topLeftCell="J279" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B242" sqref="B242:B293"/>
+      <selection pane="bottomRight" activeCell="E302" sqref="E302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8541,6 +8712,663 @@
         <v>34</v>
       </c>
     </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>585</v>
+      </c>
+      <c r="C289" t="s">
+        <v>586</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E289" t="s">
+        <v>14</v>
+      </c>
+      <c r="F289" t="s">
+        <v>588</v>
+      </c>
+      <c r="G289" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>585</v>
+      </c>
+      <c r="C290" t="s">
+        <v>586</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E290" t="s">
+        <v>112</v>
+      </c>
+      <c r="F290" t="s">
+        <v>590</v>
+      </c>
+      <c r="G290" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>585</v>
+      </c>
+      <c r="C291" t="s">
+        <v>586</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E291" t="s">
+        <v>40</v>
+      </c>
+      <c r="F291" t="s">
+        <v>592</v>
+      </c>
+      <c r="G291" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>585</v>
+      </c>
+      <c r="C292" t="s">
+        <v>3</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E292" t="s">
+        <v>112</v>
+      </c>
+      <c r="F292" t="s">
+        <v>594</v>
+      </c>
+      <c r="G292" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>585</v>
+      </c>
+      <c r="C293" t="s">
+        <v>3</v>
+      </c>
+      <c r="F293" t="s">
+        <v>595</v>
+      </c>
+      <c r="G293" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>585</v>
+      </c>
+      <c r="C294" t="s">
+        <v>596</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E294" t="s">
+        <v>14</v>
+      </c>
+      <c r="F294" t="s">
+        <v>598</v>
+      </c>
+      <c r="G294" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>585</v>
+      </c>
+      <c r="C295" t="s">
+        <v>596</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E295" t="s">
+        <v>14</v>
+      </c>
+      <c r="F295" t="s">
+        <v>600</v>
+      </c>
+      <c r="G295" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>585</v>
+      </c>
+      <c r="C296" t="s">
+        <v>596</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E296" t="s">
+        <v>285</v>
+      </c>
+      <c r="F296" t="s">
+        <v>602</v>
+      </c>
+      <c r="G296" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>634</v>
+      </c>
+      <c r="C297" t="s">
+        <v>586</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E297" t="s">
+        <v>14</v>
+      </c>
+      <c r="F297" t="s">
+        <v>604</v>
+      </c>
+      <c r="G297" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>634</v>
+      </c>
+      <c r="C298" t="s">
+        <v>586</v>
+      </c>
+      <c r="F298" t="s">
+        <v>605</v>
+      </c>
+      <c r="G298" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>634</v>
+      </c>
+      <c r="C299" t="s">
+        <v>3</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E299" t="s">
+        <v>10</v>
+      </c>
+      <c r="F299" t="s">
+        <v>608</v>
+      </c>
+      <c r="G299" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>634</v>
+      </c>
+      <c r="C300" t="s">
+        <v>3</v>
+      </c>
+      <c r="F300" t="s">
+        <v>609</v>
+      </c>
+      <c r="G300" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>634</v>
+      </c>
+      <c r="C301" t="s">
+        <v>3</v>
+      </c>
+      <c r="F301" t="s">
+        <v>610</v>
+      </c>
+      <c r="G301" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>634</v>
+      </c>
+      <c r="C302" t="s">
+        <v>3</v>
+      </c>
+      <c r="F302" t="s">
+        <v>611</v>
+      </c>
+      <c r="G302" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>634</v>
+      </c>
+      <c r="C303" t="s">
+        <v>3</v>
+      </c>
+      <c r="F303" t="s">
+        <v>612</v>
+      </c>
+      <c r="G303" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>634</v>
+      </c>
+      <c r="C304" t="s">
+        <v>3</v>
+      </c>
+      <c r="F304" t="s">
+        <v>613</v>
+      </c>
+      <c r="G304" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
+        <v>634</v>
+      </c>
+      <c r="C305" t="s">
+        <v>3</v>
+      </c>
+      <c r="F305" t="s">
+        <v>614</v>
+      </c>
+      <c r="G305" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
+        <v>634</v>
+      </c>
+      <c r="C306" t="s">
+        <v>616</v>
+      </c>
+      <c r="F306" t="s">
+        <v>615</v>
+      </c>
+      <c r="G306" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
+        <v>634</v>
+      </c>
+      <c r="C307" t="s">
+        <v>616</v>
+      </c>
+      <c r="F307" t="s">
+        <v>617</v>
+      </c>
+      <c r="G307" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308" t="s">
+        <v>634</v>
+      </c>
+      <c r="C308" t="s">
+        <v>616</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E308" t="s">
+        <v>32</v>
+      </c>
+      <c r="F308" t="s">
+        <v>619</v>
+      </c>
+      <c r="G308" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>634</v>
+      </c>
+      <c r="C309" t="s">
+        <v>616</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E309" t="s">
+        <v>32</v>
+      </c>
+      <c r="F309" t="s">
+        <v>621</v>
+      </c>
+      <c r="G309" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310" t="s">
+        <v>634</v>
+      </c>
+      <c r="C310" t="s">
+        <v>596</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E310" t="s">
+        <v>10</v>
+      </c>
+      <c r="F310" t="s">
+        <v>623</v>
+      </c>
+      <c r="G310" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311" t="s">
+        <v>634</v>
+      </c>
+      <c r="C311" t="s">
+        <v>596</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E311" t="s">
+        <v>10</v>
+      </c>
+      <c r="F311" t="s">
+        <v>625</v>
+      </c>
+      <c r="G311" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312" t="s">
+        <v>634</v>
+      </c>
+      <c r="C312" t="s">
+        <v>596</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E312" t="s">
+        <v>14</v>
+      </c>
+      <c r="F312" t="s">
+        <v>627</v>
+      </c>
+      <c r="G312" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313" t="s">
+        <v>634</v>
+      </c>
+      <c r="C313" t="s">
+        <v>596</v>
+      </c>
+      <c r="F313" t="s">
+        <v>628</v>
+      </c>
+      <c r="G313" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314" t="s">
+        <v>634</v>
+      </c>
+      <c r="C314" t="s">
+        <v>596</v>
+      </c>
+      <c r="F314" t="s">
+        <v>629</v>
+      </c>
+      <c r="G314" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315" t="s">
+        <v>634</v>
+      </c>
+      <c r="C315" t="s">
+        <v>596</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E315" t="s">
+        <v>10</v>
+      </c>
+      <c r="F315" t="s">
+        <v>630</v>
+      </c>
+      <c r="G315" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316" t="s">
+        <v>634</v>
+      </c>
+      <c r="C316" t="s">
+        <v>596</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E316" t="s">
+        <v>14</v>
+      </c>
+      <c r="F316" t="s">
+        <v>633</v>
+      </c>
+      <c r="G316" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317" t="s">
+        <v>641</v>
+      </c>
+      <c r="C317" t="s">
+        <v>635</v>
+      </c>
+      <c r="F317" t="s">
+        <v>636</v>
+      </c>
+      <c r="G317" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318" t="s">
+        <v>641</v>
+      </c>
+      <c r="C318" t="s">
+        <v>635</v>
+      </c>
+      <c r="F318" t="s">
+        <v>637</v>
+      </c>
+      <c r="G318" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319" t="s">
+        <v>641</v>
+      </c>
+      <c r="C319" t="s">
+        <v>635</v>
+      </c>
+      <c r="F319" t="s">
+        <v>638</v>
+      </c>
+      <c r="G319" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320" t="s">
+        <v>641</v>
+      </c>
+      <c r="C320" t="s">
+        <v>635</v>
+      </c>
+      <c r="F320" t="s">
+        <v>639</v>
+      </c>
+      <c r="G320" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321" t="s">
+        <v>641</v>
+      </c>
+      <c r="C321" t="s">
+        <v>635</v>
+      </c>
+      <c r="F321" t="s">
+        <v>640</v>
+      </c>
+      <c r="G321" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/stock_list.xlsx
+++ b/data/stock_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghunlee/Desktop/Pycharm/ValueChainMap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9422F47-9D6E-C34F-8410-114DB23D0E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB205FAC-22AC-244A-BF13-EF7E2A00317E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22920" yWindow="600" windowWidth="28280" windowHeight="28200" xr2:uid="{85359153-6BE3-CA47-BCB1-57E1D79C5C5D}"/>
+    <workbookView xWindow="18200" yWindow="780" windowWidth="17800" windowHeight="22600" xr2:uid="{85359153-6BE3-CA47-BCB1-57E1D79C5C5D}"/>
   </bookViews>
   <sheets>
     <sheet name="stock list" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="685">
   <si>
     <t>class1</t>
   </si>
@@ -1962,6 +1962,135 @@
   </si>
   <si>
     <t>blockchain</t>
+  </si>
+  <si>
+    <t>mobility software</t>
+  </si>
+  <si>
+    <t>E2E architecture</t>
+  </si>
+  <si>
+    <t>9868</t>
+  </si>
+  <si>
+    <t>9866</t>
+  </si>
+  <si>
+    <t>Nio Inc</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>Li Auto</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>Geely Automobile Holdings</t>
+  </si>
+  <si>
+    <t>9888</t>
+  </si>
+  <si>
+    <t>Baidu</t>
+  </si>
+  <si>
+    <t>Waymo</t>
+  </si>
+  <si>
+    <t>["NASDAQ:GOOGL"]</t>
+  </si>
+  <si>
+    <t>modular architecture</t>
+  </si>
+  <si>
+    <t>1211</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>WeRide Inc.</t>
+  </si>
+  <si>
+    <t>9863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhejiang Leapmotor Technology </t>
+  </si>
+  <si>
+    <t>RIVN</t>
+  </si>
+  <si>
+    <t>Rivian Automotive, Inc</t>
+  </si>
+  <si>
+    <t>LCID</t>
+  </si>
+  <si>
+    <t>Lucid Group, Inc.</t>
+  </si>
+  <si>
+    <t>AUR</t>
+  </si>
+  <si>
+    <t>Aurora Innovation</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>Pony AI</t>
+  </si>
+  <si>
+    <t>Nuro</t>
+  </si>
+  <si>
+    <t>Zoox</t>
+  </si>
+  <si>
+    <t>TSPH</t>
+  </si>
+  <si>
+    <t>OTC</t>
+  </si>
+  <si>
+    <t>TuSimple</t>
+  </si>
+  <si>
+    <t>LLM</t>
+  </si>
+  <si>
+    <t>Open AI</t>
+  </si>
+  <si>
+    <t>["NASDAQ:MSFT"]</t>
+  </si>
+  <si>
+    <t>xAI</t>
+  </si>
+  <si>
+    <t>DeepSeek</t>
+  </si>
+  <si>
+    <t>mobility hardware</t>
+  </si>
+  <si>
+    <t>agent</t>
+  </si>
+  <si>
+    <t>600104</t>
+  </si>
+  <si>
+    <t>SAIC Motor Corporation</t>
+  </si>
+  <si>
+    <t>BAIC BluePark New Energy</t>
+  </si>
+  <si>
+    <t>600733</t>
   </si>
 </sst>
 </file>
@@ -2343,13 +2472,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043C6CD4-AF7A-0743-9909-CB9E059BF0DA}">
-  <dimension ref="A1:I321"/>
+  <dimension ref="A1:I348"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <pane xSplit="9" ySplit="4" topLeftCell="J279" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="9" ySplit="4" topLeftCell="J311" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E302" sqref="E302"/>
+      <selection pane="bottomRight" activeCell="D349" sqref="D349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9352,7 +9481,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>320</v>
       </c>
@@ -9367,6 +9496,516 @@
       </c>
       <c r="G321" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B322" t="s">
+        <v>642</v>
+      </c>
+      <c r="C322" t="s">
+        <v>643</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E322" t="s">
+        <v>10</v>
+      </c>
+      <c r="F322" t="s">
+        <v>255</v>
+      </c>
+      <c r="G322" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B323" t="s">
+        <v>642</v>
+      </c>
+      <c r="C323" t="s">
+        <v>643</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="E323" t="s">
+        <v>40</v>
+      </c>
+      <c r="F323" t="s">
+        <v>261</v>
+      </c>
+      <c r="G323" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B324" t="s">
+        <v>642</v>
+      </c>
+      <c r="C324" t="s">
+        <v>643</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E324" t="s">
+        <v>40</v>
+      </c>
+      <c r="F324" t="s">
+        <v>646</v>
+      </c>
+      <c r="G324" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B325" t="s">
+        <v>642</v>
+      </c>
+      <c r="C325" t="s">
+        <v>643</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E325" t="s">
+        <v>40</v>
+      </c>
+      <c r="F325" t="s">
+        <v>648</v>
+      </c>
+      <c r="G325" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B326" t="s">
+        <v>642</v>
+      </c>
+      <c r="C326" t="s">
+        <v>643</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E326" t="s">
+        <v>40</v>
+      </c>
+      <c r="F326" t="s">
+        <v>259</v>
+      </c>
+      <c r="G326" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B327" t="s">
+        <v>642</v>
+      </c>
+      <c r="C327" t="s">
+        <v>643</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="E327" t="s">
+        <v>40</v>
+      </c>
+      <c r="F327" t="s">
+        <v>650</v>
+      </c>
+      <c r="G327" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B328" t="s">
+        <v>642</v>
+      </c>
+      <c r="C328" t="s">
+        <v>643</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E328" t="s">
+        <v>40</v>
+      </c>
+      <c r="F328" t="s">
+        <v>652</v>
+      </c>
+      <c r="G328" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B329" t="s">
+        <v>642</v>
+      </c>
+      <c r="C329" t="s">
+        <v>655</v>
+      </c>
+      <c r="F329" t="s">
+        <v>653</v>
+      </c>
+      <c r="G329" t="s">
+        <v>12</v>
+      </c>
+      <c r="H329" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B330" t="s">
+        <v>642</v>
+      </c>
+      <c r="C330" t="s">
+        <v>655</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="E330" t="s">
+        <v>40</v>
+      </c>
+      <c r="F330" t="s">
+        <v>384</v>
+      </c>
+      <c r="G330" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B331" t="s">
+        <v>642</v>
+      </c>
+      <c r="C331" t="s">
+        <v>655</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E331" t="s">
+        <v>40</v>
+      </c>
+      <c r="F331" t="s">
+        <v>658</v>
+      </c>
+      <c r="G331" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B332" t="s">
+        <v>642</v>
+      </c>
+      <c r="C332" t="s">
+        <v>655</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E332" t="s">
+        <v>40</v>
+      </c>
+      <c r="F332" t="s">
+        <v>660</v>
+      </c>
+      <c r="G332" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B333" t="s">
+        <v>642</v>
+      </c>
+      <c r="C333" t="s">
+        <v>655</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E333" t="s">
+        <v>10</v>
+      </c>
+      <c r="F333" t="s">
+        <v>662</v>
+      </c>
+      <c r="G333" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B334" t="s">
+        <v>642</v>
+      </c>
+      <c r="C334" t="s">
+        <v>655</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E334" t="s">
+        <v>10</v>
+      </c>
+      <c r="F334" t="s">
+        <v>664</v>
+      </c>
+      <c r="G334" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B335" t="s">
+        <v>642</v>
+      </c>
+      <c r="C335" t="s">
+        <v>655</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="E335" t="s">
+        <v>10</v>
+      </c>
+      <c r="F335" t="s">
+        <v>666</v>
+      </c>
+      <c r="G335" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B336" t="s">
+        <v>642</v>
+      </c>
+      <c r="C336" t="s">
+        <v>655</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="E336" t="s">
+        <v>40</v>
+      </c>
+      <c r="F336" t="s">
+        <v>668</v>
+      </c>
+      <c r="G336" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="337" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B337" t="s">
+        <v>642</v>
+      </c>
+      <c r="C337" t="s">
+        <v>655</v>
+      </c>
+      <c r="F337" t="s">
+        <v>669</v>
+      </c>
+      <c r="G337" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="338" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B338" t="s">
+        <v>642</v>
+      </c>
+      <c r="C338" t="s">
+        <v>655</v>
+      </c>
+      <c r="F338" t="s">
+        <v>670</v>
+      </c>
+      <c r="G338" t="s">
+        <v>12</v>
+      </c>
+      <c r="H338" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="339" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B339" t="s">
+        <v>642</v>
+      </c>
+      <c r="C339" t="s">
+        <v>655</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E339" t="s">
+        <v>672</v>
+      </c>
+      <c r="F339" t="s">
+        <v>673</v>
+      </c>
+      <c r="G339" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="340" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B340" t="s">
+        <v>642</v>
+      </c>
+      <c r="C340" t="s">
+        <v>674</v>
+      </c>
+      <c r="F340" t="s">
+        <v>675</v>
+      </c>
+      <c r="G340" t="s">
+        <v>12</v>
+      </c>
+      <c r="H340" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="341" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B341" t="s">
+        <v>642</v>
+      </c>
+      <c r="C341" t="s">
+        <v>674</v>
+      </c>
+      <c r="F341" t="s">
+        <v>677</v>
+      </c>
+      <c r="G341" t="s">
+        <v>12</v>
+      </c>
+      <c r="H341" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="342" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B342" t="s">
+        <v>642</v>
+      </c>
+      <c r="C342" t="s">
+        <v>674</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E342" t="s">
+        <v>10</v>
+      </c>
+      <c r="F342" t="s">
+        <v>392</v>
+      </c>
+      <c r="G342" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="343" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B343" t="s">
+        <v>642</v>
+      </c>
+      <c r="C343" t="s">
+        <v>674</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E343" t="s">
+        <v>10</v>
+      </c>
+      <c r="F343" t="s">
+        <v>394</v>
+      </c>
+      <c r="G343" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="344" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B344" t="s">
+        <v>642</v>
+      </c>
+      <c r="C344" t="s">
+        <v>674</v>
+      </c>
+      <c r="F344" t="s">
+        <v>678</v>
+      </c>
+      <c r="G344" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="345" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B345" t="s">
+        <v>642</v>
+      </c>
+      <c r="C345" t="s">
+        <v>674</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E345" t="s">
+        <v>40</v>
+      </c>
+      <c r="F345" t="s">
+        <v>399</v>
+      </c>
+      <c r="G345" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="346" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B346" t="s">
+        <v>642</v>
+      </c>
+      <c r="C346" t="s">
+        <v>674</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E346" t="s">
+        <v>40</v>
+      </c>
+      <c r="F346" t="s">
+        <v>652</v>
+      </c>
+      <c r="G346" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="347" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B347" t="s">
+        <v>679</v>
+      </c>
+      <c r="C347" t="s">
+        <v>680</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="E347" t="s">
+        <v>37</v>
+      </c>
+      <c r="F347" t="s">
+        <v>682</v>
+      </c>
+      <c r="G347" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="348" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D348" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="E348" t="s">
+        <v>37</v>
+      </c>
+      <c r="F348" t="s">
+        <v>683</v>
+      </c>
+      <c r="G348" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
